--- a/src/main/java/com/qa/data/FreeCRM_Data.xlsx
+++ b/src/main/java/com/qa/data/FreeCRM_Data.xlsx
@@ -3,36 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AA3B0164-2FDB-4B4D-9586-6779AC718CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA\Proejcts\MaveProject\POMFreeCrmBDD\POMFreeCrmBDD\src\main\java\com\qa\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C97B712-B61D-423C-9188-9834E0CC4FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{76CBD4D1-EDDC-4393-B3E8-E5529CB8BF04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{76CBD4D1-EDDC-4393-B3E8-E5529CB8BF04}"/>
   </bookViews>
   <sheets>
     <sheet name="NewContact" sheetId="1" r:id="rId1"/>
+    <sheet name="CombineForm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
   <si>
     <t>Title</t>
   </si>
@@ -152,13 +146,235 @@
   </si>
   <si>
     <t>Selling</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Annual  Revenue</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Middlename</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Company 1</t>
+  </si>
+  <si>
+    <t>Company 2</t>
+  </si>
+  <si>
+    <t>Company 3</t>
+  </si>
+  <si>
+    <t>Company 4</t>
+  </si>
+  <si>
+    <t>Company 5</t>
+  </si>
+  <si>
+    <t>Industry 1</t>
+  </si>
+  <si>
+    <t>Industry 2</t>
+  </si>
+  <si>
+    <t>Industry 3</t>
+  </si>
+  <si>
+    <t>Industry 4</t>
+  </si>
+  <si>
+    <t>Industry 5</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>www.company1.com</t>
+  </si>
+  <si>
+    <t>www.company3.com</t>
+  </si>
+  <si>
+    <t>www.company4.com</t>
+  </si>
+  <si>
+    <t>www.company11.com</t>
+  </si>
+  <si>
+    <t>www.company20.com</t>
+  </si>
+  <si>
+    <t>company2@gmail.com</t>
+  </si>
+  <si>
+    <t>company3@gmail.com</t>
+  </si>
+  <si>
+    <t>company13gmail.com</t>
+  </si>
+  <si>
+    <t>company4111@gmail.com</t>
+  </si>
+  <si>
+    <t>company41@gmail.com</t>
+  </si>
+  <si>
+    <t>Fax 1</t>
+  </si>
+  <si>
+    <t>Fax 2</t>
+  </si>
+  <si>
+    <t>Fax 3</t>
+  </si>
+  <si>
+    <t>Fax 5</t>
+  </si>
+  <si>
+    <t>Fax 4</t>
+  </si>
+  <si>
+    <t>First Name 1</t>
+  </si>
+  <si>
+    <t>First Name 2</t>
+  </si>
+  <si>
+    <t>First Name 3</t>
+  </si>
+  <si>
+    <t>First Name 5</t>
+  </si>
+  <si>
+    <t>First Name 4</t>
+  </si>
+  <si>
+    <t>Middle Name 1</t>
+  </si>
+  <si>
+    <t>Middle Name 3</t>
+  </si>
+  <si>
+    <t>Middle Name 2</t>
+  </si>
+  <si>
+    <t>Middle Name 4</t>
+  </si>
+  <si>
+    <t>Middle Name 5</t>
+  </si>
+  <si>
+    <t>Last Name 1</t>
+  </si>
+  <si>
+    <t>Last Name 2</t>
+  </si>
+  <si>
+    <t>Last Name 3</t>
+  </si>
+  <si>
+    <t>Last Name 4</t>
+  </si>
+  <si>
+    <t>Last Name 5</t>
+  </si>
+  <si>
+    <t>Nich 1</t>
+  </si>
+  <si>
+    <t>Nich 2</t>
+  </si>
+  <si>
+    <t>Nich 3</t>
+  </si>
+  <si>
+    <t>Nich 5</t>
+  </si>
+  <si>
+    <t>Nich 4</t>
+  </si>
+  <si>
+    <t>Possition 1</t>
+  </si>
+  <si>
+    <t>Possition 2</t>
+  </si>
+  <si>
+    <t>Possition 3</t>
+  </si>
+  <si>
+    <t>Department 1</t>
+  </si>
+  <si>
+    <t>Department 2</t>
+  </si>
+  <si>
+    <t>Department 3</t>
+  </si>
+  <si>
+    <t>Department 4</t>
+  </si>
+  <si>
+    <t>Department 5</t>
+  </si>
+  <si>
+    <t>Possition 4</t>
+  </si>
+  <si>
+    <t>Possition 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +387,20 @@
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -220,10 +450,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -232,8 +463,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -548,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC21A2C-01C0-49A1-8024-6E2FA782F09E}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,4 +938,360 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D178C7B-4AA5-448F-88E9-341C028EE485}">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>10000000</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2">
+        <v>1111111111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>2000000</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3">
+        <v>2222222222</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>30000000</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>3333333333</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>5000000</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5">
+        <v>4444444444</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>4100000</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6">
+        <v>5555555555</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{2A3E12A4-214C-4DBD-9CF3-DBEF1652D278}"/>
+    <hyperlink ref="F3:F6" r:id="rId2" display="www.company1.com" xr:uid="{79EAF2E1-AB26-4D38-92F9-F227D728A41A}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{5D3A6ADF-D465-4623-80BA-D3841ADF134D}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{8EDDD68E-D114-430A-99EC-3134708EE190}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{F037C6FC-CC70-47A6-A7A0-05B897A37BEB}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{BDB0D5BE-B9DE-4B61-BCE5-ECA6FFBDEBD9}"/>
+    <hyperlink ref="G2" r:id="rId7" xr:uid="{E409225A-3F6A-41A6-923B-A8CD9FF5F00B}"/>
+    <hyperlink ref="G3:G6" r:id="rId8" display="company1@gmail.com" xr:uid="{FABDCF29-77EC-4EF8-901A-FFDBEA18D139}"/>
+    <hyperlink ref="G3" r:id="rId9" xr:uid="{856B2409-3F2B-4015-B2FD-1F10C215F391}"/>
+    <hyperlink ref="G5" r:id="rId10" xr:uid="{9FA5F1B0-5090-4679-8364-D52244F269F9}"/>
+    <hyperlink ref="G6" r:id="rId11" xr:uid="{2B00D18C-758A-46C9-A849-F5158F53A82E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>